--- a/Team-66-MS1-P1-A (1).xlsx
+++ b/Team-66-MS1-P1-A (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DeLL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E427A612-6560-4182-93E8-A4740CB299F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5DC1E69-94BC-41B0-8364-C7D3FC78814E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>Check student status, company confirmation and required reports</t>
+  </si>
+  <si>
+    <t>Company Evaluation</t>
+  </si>
+  <si>
+    <t>Intern Reports</t>
   </si>
 </sst>
 </file>
@@ -993,13 +999,13 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="46.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="54.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="24" t="s">
         <v>78</v>
       </c>
@@ -1007,25 +1013,25 @@
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="26"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="28" t="s">
         <v>13</v>
       </c>
@@ -1033,7 +1039,7 @@
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1053,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
@@ -1117,992 +1123,992 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -2128,22 +2134,22 @@
   </sheetPr>
   <dimension ref="A1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B51" zoomScale="93" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="33.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="14"/>
+    <col min="1" max="1" width="12.5546875" style="14"/>
     <col min="2" max="2" width="31" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="18" customWidth="1"/>
-    <col min="5" max="6" width="35.5703125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="54.85546875" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="12.5703125" style="14"/>
+    <col min="3" max="3" width="18.33203125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="20.5546875" style="18" customWidth="1"/>
+    <col min="5" max="6" width="35.5546875" style="14" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="12.5546875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
@@ -2162,7 +2168,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -2177,7 +2183,7 @@
       </c>
       <c r="G2" s="29"/>
     </row>
-    <row r="3" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="33" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="5" t="s">
         <v>12</v>
@@ -2196,7 +2202,7 @@
       </c>
       <c r="G3" s="15"/>
     </row>
-    <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>34</v>
       </c>
@@ -2215,7 +2221,7 @@
       </c>
       <c r="G4" s="17"/>
     </row>
-    <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>34</v>
       </c>
@@ -2234,7 +2240,7 @@
       </c>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>34</v>
       </c>
@@ -2255,7 +2261,7 @@
       </c>
       <c r="G6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>34</v>
       </c>
@@ -2274,7 +2280,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
@@ -2293,7 +2299,7 @@
       </c>
       <c r="G8" s="15"/>
     </row>
-    <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>34</v>
       </c>
@@ -2314,7 +2320,7 @@
       </c>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>45</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>45</v>
       </c>
@@ -2354,7 +2360,7 @@
       </c>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>45</v>
       </c>
@@ -2375,7 +2381,7 @@
       </c>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>45</v>
       </c>
@@ -2396,7 +2402,7 @@
       </c>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>45</v>
       </c>
@@ -2417,7 +2423,7 @@
       </c>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
@@ -2436,7 +2442,7 @@
       </c>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>45</v>
       </c>
@@ -2457,7 +2463,7 @@
       </c>
       <c r="G16" s="17"/>
     </row>
-    <row r="17" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>45</v>
       </c>
@@ -2476,7 +2482,7 @@
       </c>
       <c r="G17" s="17"/>
     </row>
-    <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>45</v>
       </c>
@@ -2495,7 +2501,7 @@
       </c>
       <c r="G18" s="17"/>
     </row>
-    <row r="19" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>45</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -2539,7 +2545,7 @@
       </c>
       <c r="G20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
@@ -2560,7 +2566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>45</v>
       </c>
@@ -2581,7 +2587,7 @@
       </c>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>45</v>
       </c>
@@ -2602,7 +2608,7 @@
       </c>
       <c r="G23" s="17"/>
     </row>
-    <row r="24" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
         <v>63</v>
       </c>
@@ -2621,7 +2627,7 @@
       </c>
       <c r="G24" s="17"/>
     </row>
-    <row r="25" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
         <v>63</v>
       </c>
@@ -2642,7 +2648,7 @@
       </c>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>63</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>63</v>
       </c>
@@ -2686,8 +2692,10 @@
       </c>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B28" s="5"/>
       <c r="C28" s="10">
         <v>26</v>
@@ -2703,8 +2711,10 @@
       </c>
       <c r="G28" s="15"/>
     </row>
-    <row r="29" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
+    <row r="29" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B29" s="5">
         <v>26</v>
       </c>
@@ -2722,8 +2732,10 @@
       </c>
       <c r="G29" s="15"/>
     </row>
-    <row r="30" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
+    <row r="30" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B30" s="11">
         <v>13</v>
       </c>
@@ -2741,8 +2753,10 @@
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+    <row r="31" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B31" s="11">
         <v>26</v>
       </c>
@@ -2760,8 +2774,10 @@
       </c>
       <c r="G31" s="17"/>
     </row>
-    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
+    <row r="32" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="10">
         <v>30</v>
@@ -2777,7 +2793,7 @@
       </c>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>63</v>
       </c>
@@ -2798,7 +2814,7 @@
       </c>
       <c r="G33" s="17"/>
     </row>
-    <row r="34" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>63</v>
       </c>
@@ -2819,7 +2835,7 @@
       </c>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>63</v>
       </c>
@@ -2840,7 +2856,7 @@
       </c>
       <c r="G35" s="17"/>
     </row>
-    <row r="36" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21" t="s">
         <v>63</v>
       </c>
@@ -2861,8 +2877,10 @@
       </c>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
+    <row r="37" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B37" s="11">
         <v>34</v>
       </c>
@@ -2880,8 +2898,10 @@
       </c>
       <c r="G37" s="17"/>
     </row>
-    <row r="38" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
+    <row r="38" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B38" s="5">
         <v>35</v>
       </c>
@@ -2899,8 +2919,10 @@
       </c>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
+    <row r="39" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B39" s="11">
         <v>36</v>
       </c>
@@ -2918,8 +2940,10 @@
       </c>
       <c r="G39" s="17"/>
     </row>
-    <row r="40" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9"/>
+    <row r="40" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B40" s="5">
         <v>37</v>
       </c>
@@ -2939,8 +2963,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
+    <row r="41" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B41" s="11">
         <v>38</v>
       </c>
@@ -2958,8 +2984,10 @@
       </c>
       <c r="G41" s="17"/>
     </row>
-    <row r="42" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
+    <row r="42" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>63</v>
+      </c>
       <c r="B42" s="11">
         <v>39</v>
       </c>
@@ -2977,8 +3005,10 @@
       </c>
       <c r="G42" s="17"/>
     </row>
-    <row r="43" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
+    <row r="43" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="B43" s="11"/>
       <c r="C43" s="10">
         <v>41</v>
@@ -2994,8 +3024,10 @@
       </c>
       <c r="G43" s="17"/>
     </row>
-    <row r="44" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="9"/>
+    <row r="44" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="B44" s="5"/>
       <c r="C44" s="10">
         <v>42</v>
@@ -3011,8 +3043,10 @@
       </c>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
+    <row r="45" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="B45" s="11"/>
       <c r="C45" s="12">
         <v>43</v>
@@ -3028,8 +3062,10 @@
       </c>
       <c r="G45" s="17"/>
     </row>
-    <row r="46" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9"/>
+    <row r="46" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="B46" s="5"/>
       <c r="C46" s="10">
         <v>44</v>
@@ -3045,8 +3081,10 @@
       </c>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
+    <row r="47" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="B47" s="11">
         <v>44</v>
       </c>
@@ -3064,8 +3102,10 @@
       </c>
       <c r="G47" s="17"/>
     </row>
-    <row r="48" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
+    <row r="48" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="B48" s="5">
         <v>44</v>
       </c>
@@ -3083,8 +3123,10 @@
       </c>
       <c r="G48" s="15"/>
     </row>
-    <row r="49" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
+    <row r="49" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="B49" s="11"/>
       <c r="C49" s="10">
         <v>47</v>
@@ -3100,8 +3142,10 @@
       </c>
       <c r="G49" s="17"/>
     </row>
-    <row r="50" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
+    <row r="50" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="B50" s="11"/>
       <c r="C50" s="10">
         <v>48</v>
@@ -3117,8 +3161,10 @@
       </c>
       <c r="G50" s="17"/>
     </row>
-    <row r="51" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9"/>
+    <row r="51" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="B51" s="5"/>
       <c r="C51" s="12">
         <v>49</v>
@@ -3134,8 +3180,10 @@
       </c>
       <c r="G51" s="15"/>
     </row>
-    <row r="52" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
+    <row r="52" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>146</v>
+      </c>
       <c r="B52" s="11">
         <v>49</v>
       </c>
@@ -3153,7 +3201,7 @@
       </c>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9"/>
       <c r="B53" s="5"/>
       <c r="C53" s="10"/>
@@ -3162,7 +3210,7 @@
       <c r="F53" s="5"/>
       <c r="G53" s="15"/>
     </row>
-    <row r="54" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="12"/>
@@ -3171,7 +3219,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="17"/>
     </row>
-    <row r="55" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="12"/>
@@ -3180,7 +3228,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="17"/>
     </row>
-    <row r="56" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="13"/>
@@ -3188,7 +3236,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="13"/>
@@ -3196,7 +3244,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="13"/>
@@ -3204,7 +3252,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="13"/>
@@ -3212,7 +3260,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="13"/>
@@ -3220,7 +3268,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="13"/>
@@ -3228,7 +3276,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="13"/>
@@ -3236,7 +3284,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="13"/>
@@ -3244,7 +3292,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="13"/>
@@ -3252,7 +3300,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="13"/>
@@ -3260,7 +3308,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="13"/>
@@ -3268,7 +3316,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="13"/>
@@ -3276,7 +3324,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="13"/>
@@ -3284,7 +3332,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="13"/>
@@ -3292,7 +3340,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="13"/>
@@ -3300,7 +3348,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="13"/>
@@ -3308,7 +3356,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="13"/>
@@ -3316,7 +3364,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
       <c r="B73" s="4"/>
       <c r="C73" s="13"/>
@@ -3324,7 +3372,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
       <c r="B74" s="4"/>
       <c r="C74" s="13"/>
@@ -3332,7 +3380,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
       <c r="B75" s="4"/>
       <c r="C75" s="13"/>
@@ -3340,7 +3388,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
       <c r="B76" s="4"/>
       <c r="C76" s="13"/>
@@ -3348,7 +3396,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
       <c r="B77" s="4"/>
       <c r="C77" s="13"/>
@@ -3356,7 +3404,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
       <c r="B78" s="4"/>
       <c r="C78" s="13"/>
@@ -3364,7 +3412,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="13"/>
@@ -3372,7 +3420,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
       <c r="B80" s="4"/>
       <c r="C80" s="13"/>
@@ -3380,7 +3428,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
       <c r="B81" s="4"/>
       <c r="C81" s="13"/>
@@ -3388,7 +3436,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
       <c r="B82" s="4"/>
       <c r="C82" s="13"/>
@@ -3396,7 +3444,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
       <c r="B83" s="4"/>
       <c r="C83" s="13"/>
@@ -3404,7 +3452,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
       <c r="B84" s="4"/>
       <c r="C84" s="13"/>
@@ -3412,7 +3460,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
       <c r="B85" s="4"/>
       <c r="C85" s="13"/>
@@ -3420,7 +3468,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
       <c r="B86" s="4"/>
       <c r="C86" s="13"/>
@@ -3428,7 +3476,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="13"/>
@@ -3436,7 +3484,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
       <c r="B88" s="4"/>
       <c r="C88" s="13"/>
@@ -3444,7 +3492,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
       <c r="B89" s="4"/>
       <c r="C89" s="13"/>
@@ -3452,7 +3500,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
       <c r="B90" s="4"/>
       <c r="C90" s="13"/>
@@ -3460,7 +3508,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
       <c r="B91" s="4"/>
       <c r="C91" s="13"/>
@@ -3468,7 +3516,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
       <c r="B92" s="4"/>
       <c r="C92" s="13"/>
@@ -3476,7 +3524,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
       <c r="B93" s="4"/>
       <c r="C93" s="13"/>
@@ -3484,7 +3532,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
       <c r="B94" s="4"/>
       <c r="C94" s="13"/>
@@ -3492,7 +3540,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="13"/>
@@ -3500,7 +3548,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
       <c r="B96" s="4"/>
       <c r="C96" s="13"/>
@@ -3508,7 +3556,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="13"/>
@@ -3516,7 +3564,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="13"/>
@@ -3524,7 +3572,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="4"/>
       <c r="C99" s="13"/>
@@ -3532,7 +3580,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="13"/>
@@ -3540,7 +3588,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="13"/>
@@ -3548,7 +3596,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="13"/>
@@ -3556,7 +3604,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="13"/>
@@ -3564,7 +3612,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="13"/>
@@ -3572,7 +3620,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="13"/>
@@ -3580,7 +3628,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="13"/>
@@ -3588,7 +3636,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="13"/>
@@ -3596,7 +3644,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="13"/>
@@ -3604,7 +3652,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="13"/>
@@ -3612,7 +3660,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="13"/>
@@ -3620,7 +3668,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="13"/>
@@ -3628,7 +3676,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="13"/>
@@ -3636,7 +3684,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="13"/>
@@ -3644,7 +3692,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="13"/>
@@ -3652,7 +3700,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="13"/>
@@ -3660,7 +3708,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="13"/>
